--- a/StructureDefinition-CARIN-BB-PractitionerRole.xlsx
+++ b/StructureDefinition-CARIN-BB-PractitionerRole.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1777" uniqueCount="327">
   <si>
     <t>Path</t>
   </si>
@@ -649,10 +649,10 @@
     <t>Need to know what authority the practitioner has - what can they do?</t>
   </si>
   <si>
-    <t>Provider role codes consisting of NUCC Health Care Provider Taxonomy Code Set for providers.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-provider-role</t>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/PayerProviderRoleVS</t>
   </si>
   <si>
     <t>PRD-1 / STF-18  / PRA-3  / PRT-4  / ROL-3 / ORC-12 / OBR-16 / PV1-7 / PV1-8 / PV1-9 / PV1-17</t>
@@ -762,9 +762,6 @@
   </si>
   <si>
     <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
-  </si>
-  <si>
-    <t>required</t>
   </si>
   <si>
     <t>Telecommunications form for contact point.</t>
@@ -3855,11 +3852,9 @@
         <v>40</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="X24" t="s" s="2">
         <v>202</v>
       </c>
+      <c r="X24" s="2"/>
       <c r="Y24" t="s" s="2">
         <v>203</v>
       </c>
@@ -4622,31 +4617,31 @@
         <v>40</v>
       </c>
       <c r="W31" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="X31" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="X31" t="s" s="2">
+      <c r="Y31" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="Y31" t="s" s="2">
+      <c r="Z31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE31" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4655,19 +4650,19 @@
         <v>50</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>62</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="AK31" t="s" s="2">
+      <c r="AL31" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>40</v>
@@ -4675,7 +4670,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4701,16 +4696,16 @@
         <v>52</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>40</v>
@@ -4759,7 +4754,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4774,13 +4769,13 @@
         <v>62</v>
       </c>
       <c r="AJ32" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="AK32" t="s" s="2">
+      <c r="AL32" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>40</v>
@@ -4788,7 +4783,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4814,16 +4809,16 @@
         <v>126</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>40</v>
@@ -4848,31 +4843,31 @@
         <v>40</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>239</v>
+        <v>202</v>
       </c>
       <c r="X33" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="Y33" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="Y33" t="s" s="2">
+      <c r="Z33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE33" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -4887,13 +4882,13 @@
         <v>62</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="AK33" t="s" s="2">
+      <c r="AL33" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>40</v>
@@ -4901,7 +4896,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4924,16 +4919,16 @@
         <v>51</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -4983,7 +4978,7 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -5012,7 +5007,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5038,10 +5033,10 @@
         <v>178</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5092,7 +5087,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5110,10 +5105,10 @@
         <v>149</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>40</v>
@@ -5121,7 +5116,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5144,16 +5139,16 @@
         <v>40</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5203,7 +5198,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5221,7 +5216,7 @@
         <v>40</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>40</v>
@@ -5232,7 +5227,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5341,7 +5336,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5452,11 +5447,11 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -5478,10 +5473,10 @@
         <v>70</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="M39" t="s" s="2">
         <v>73</v>
@@ -5536,7 +5531,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5565,7 +5560,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5591,10 +5586,10 @@
         <v>126</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5621,14 +5616,14 @@
         <v>40</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>239</v>
+        <v>202</v>
       </c>
       <c r="X40" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="Y40" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="Y40" t="s" s="2">
-        <v>296</v>
-      </c>
       <c r="Z40" t="s" s="2">
         <v>40</v>
       </c>
@@ -5645,7 +5640,7 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -5663,7 +5658,7 @@
         <v>40</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>40</v>
@@ -5674,7 +5669,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5700,10 +5695,10 @@
         <v>168</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5754,7 +5749,7 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -5772,7 +5767,7 @@
         <v>40</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>40</v>
@@ -5783,7 +5778,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5806,16 +5801,16 @@
         <v>40</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -5865,7 +5860,7 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -5883,7 +5878,7 @@
         <v>40</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>40</v>
@@ -5894,7 +5889,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5917,16 +5912,16 @@
         <v>40</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="L43" t="s" s="2">
-        <v>307</v>
-      </c>
       <c r="M43" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -5976,7 +5971,7 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -5994,7 +5989,7 @@
         <v>40</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>40</v>
@@ -6005,7 +6000,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6028,13 +6023,13 @@
         <v>40</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6085,7 +6080,7 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6103,7 +6098,7 @@
         <v>40</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>40</v>
@@ -6114,7 +6109,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6223,7 +6218,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6334,11 +6329,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6360,10 +6355,10 @@
         <v>70</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>73</v>
@@ -6418,7 +6413,7 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6447,7 +6442,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6473,10 +6468,10 @@
         <v>52</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6527,7 +6522,7 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>50</v>
@@ -6556,7 +6551,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6582,10 +6577,10 @@
         <v>178</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6636,7 +6631,7 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -6654,7 +6649,7 @@
         <v>40</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>40</v>
@@ -6665,7 +6660,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6691,10 +6686,10 @@
         <v>52</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6745,7 +6740,7 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -6763,7 +6758,7 @@
         <v>40</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>40</v>
@@ -6774,7 +6769,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6797,17 +6792,17 @@
         <v>40</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>40</v>
@@ -6856,7 +6851,7 @@
         <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>

--- a/StructureDefinition-CARIN-BB-PractitionerRole.xlsx
+++ b/StructureDefinition-CARIN-BB-PractitionerRole.xlsx
@@ -2012,7 +2012,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" hidden="true">
+    <row r="8">
       <c r="A8" t="s" s="2">
         <v>85</v>
       </c>
@@ -2028,7 +2028,7 @@
         <v>50</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>40</v>

--- a/StructureDefinition-CARIN-BB-PractitionerRole.xlsx
+++ b/StructureDefinition-CARIN-BB-PractitionerRole.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1777" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="326">
   <si>
     <t>Path</t>
   </si>
@@ -670,10 +670,7 @@
     <t>Specific specialty of the practitioner.</t>
   </si>
   <si>
-    <t>Provider specialty codes consist of NUCC Health Care Provider Taxonomy Code Set for providers.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-provider-specialty</t>
+    <t>http://nucc.org/provider-taxonomy</t>
   </si>
   <si>
     <t>PRA-5</t>
@@ -1216,7 +1213,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="57.5859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="56.39453125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
@@ -3959,13 +3956,11 @@
         <v>40</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="X25" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="X25" s="2"/>
+      <c r="Y25" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>40</v>
@@ -3998,13 +3993,13 @@
         <v>62</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AL25" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>40</v>
@@ -4012,7 +4007,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4035,13 +4030,13 @@
         <v>51</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4092,7 +4087,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4110,18 +4105,18 @@
         <v>40</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>220</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4144,13 +4139,13 @@
         <v>40</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4201,7 +4196,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4216,10 +4211,10 @@
         <v>62</v>
       </c>
       <c r="AJ27" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>40</v>
@@ -4230,7 +4225,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4253,17 +4248,17 @@
         <v>51</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>40</v>
@@ -4312,7 +4307,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4321,7 +4316,7 @@
         <v>42</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>62</v>
@@ -4330,7 +4325,7 @@
         <v>40</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>40</v>
@@ -4341,7 +4336,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4450,7 +4445,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4561,7 +4556,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4587,10 +4582,10 @@
         <v>126</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4620,28 +4615,28 @@
         <v>202</v>
       </c>
       <c r="X31" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="Y31" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="Y31" t="s" s="2">
+      <c r="Z31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE31" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4650,19 +4645,19 @@
         <v>50</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>62</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="AK31" t="s" s="2">
+      <c r="AL31" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>40</v>
@@ -4670,7 +4665,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4696,16 +4691,16 @@
         <v>52</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>40</v>
@@ -4754,7 +4749,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4769,13 +4764,13 @@
         <v>62</v>
       </c>
       <c r="AJ32" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="AK32" t="s" s="2">
+      <c r="AL32" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>40</v>
@@ -4783,7 +4778,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4809,16 +4804,16 @@
         <v>126</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>40</v>
@@ -4846,28 +4841,28 @@
         <v>202</v>
       </c>
       <c r="X33" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="Y33" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="Y33" t="s" s="2">
+      <c r="Z33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE33" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -4882,13 +4877,13 @@
         <v>62</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="AK33" t="s" s="2">
+      <c r="AL33" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>40</v>
@@ -4896,7 +4891,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4919,16 +4914,16 @@
         <v>51</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -4978,7 +4973,7 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -5007,7 +5002,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5033,10 +5028,10 @@
         <v>178</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5087,7 +5082,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5105,10 +5100,10 @@
         <v>149</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>40</v>
@@ -5116,7 +5111,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5139,16 +5134,16 @@
         <v>40</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5198,7 +5193,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5216,7 +5211,7 @@
         <v>40</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>40</v>
@@ -5227,7 +5222,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5336,7 +5331,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5447,11 +5442,11 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -5473,10 +5468,10 @@
         <v>70</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="M39" t="s" s="2">
         <v>73</v>
@@ -5531,7 +5526,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5560,7 +5555,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5586,10 +5581,10 @@
         <v>126</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5619,11 +5614,11 @@
         <v>202</v>
       </c>
       <c r="X40" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="Y40" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="Y40" t="s" s="2">
-        <v>295</v>
-      </c>
       <c r="Z40" t="s" s="2">
         <v>40</v>
       </c>
@@ -5640,7 +5635,7 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -5658,7 +5653,7 @@
         <v>40</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>40</v>
@@ -5669,7 +5664,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5695,10 +5690,10 @@
         <v>168</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5749,7 +5744,7 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -5767,7 +5762,7 @@
         <v>40</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>40</v>
@@ -5778,7 +5773,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5801,16 +5796,16 @@
         <v>40</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -5860,7 +5855,7 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -5878,7 +5873,7 @@
         <v>40</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>40</v>
@@ -5889,7 +5884,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5912,16 +5907,16 @@
         <v>40</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="L43" t="s" s="2">
-        <v>306</v>
-      </c>
       <c r="M43" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -5971,7 +5966,7 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -5989,7 +5984,7 @@
         <v>40</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>40</v>
@@ -6000,7 +5995,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6023,13 +6018,13 @@
         <v>40</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6080,7 +6075,7 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6098,7 +6093,7 @@
         <v>40</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>40</v>
@@ -6109,7 +6104,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6218,7 +6213,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6329,11 +6324,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6355,10 +6350,10 @@
         <v>70</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>73</v>
@@ -6413,7 +6408,7 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6442,7 +6437,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6468,10 +6463,10 @@
         <v>52</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6522,7 +6517,7 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>50</v>
@@ -6551,7 +6546,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6577,10 +6572,10 @@
         <v>178</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6631,7 +6626,7 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -6649,7 +6644,7 @@
         <v>40</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>40</v>
@@ -6660,7 +6655,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6686,10 +6681,10 @@
         <v>52</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6740,7 +6735,7 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -6758,7 +6753,7 @@
         <v>40</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>40</v>
@@ -6769,7 +6764,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6792,17 +6787,17 @@
         <v>40</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>40</v>
@@ -6851,7 +6846,7 @@
         <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
@@ -6860,7 +6855,7 @@
         <v>42</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>62</v>

--- a/StructureDefinition-CARIN-BB-PractitionerRole.xlsx
+++ b/StructureDefinition-CARIN-BB-PractitionerRole.xlsx
@@ -652,7 +652,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/PayerProviderRoleVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/PayerProviderRole</t>
   </si>
   <si>
     <t>PRD-1 / STF-18  / PRA-3  / PRT-4  / ROL-3 / ORC-12 / OBR-16 / PV1-7 / PV1-8 / PV1-9 / PV1-17</t>
@@ -1213,7 +1213,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="56.39453125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.9765625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-CARIN-BB-PractitionerRole.xlsx
+++ b/StructureDefinition-CARIN-BB-PractitionerRole.xlsx
@@ -652,7 +652,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/PayerProviderRole</t>
+    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-provider-role</t>
   </si>
   <si>
     <t>PRD-1 / STF-18  / PRA-3  / PRT-4  / ROL-3 / ORC-12 / OBR-16 / PV1-7 / PV1-8 / PV1-9 / PV1-17</t>
@@ -670,7 +670,7 @@
     <t>Specific specialty of the practitioner.</t>
   </si>
   <si>
-    <t>http://nucc.org/provider-taxonomy</t>
+    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-provider-specialty</t>
   </si>
   <si>
     <t>PRA-5</t>
@@ -1213,7 +1213,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.9765625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="57.5859375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-CARIN-BB-PractitionerRole.xlsx
+++ b/StructureDefinition-CARIN-BB-PractitionerRole.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$44</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="281">
   <si>
     <t>Path</t>
   </si>
@@ -149,11 +149,11 @@
     <t>Roles/organizations the practitioner is associated with</t>
   </si>
   <si>
-    <t>This is basic constraint on PractitionerRole for use in US Core resources.</t>
+    <t>A specific set of Roles/Locations/specialties/services that a practitioner may perform at an organization for a period of time.</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}pd-1:SHALL have contact information or a reference to an Endpoint {telecom or endpoint}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>PRD (as one example)</t>
@@ -685,7 +685,7 @@
     <t>PractitionerRole.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/carin-bb/StructureDefinition/CARIN-BB-Location)
+    <t xml:space="preserve">Reference(Location)
 </t>
   </si>
   <si>
@@ -739,145 +739,7 @@
     <t>Often practitioners have a dedicated line for each location (or service) that they work at, and need to be able to define separate contact details for each of these.</t>
   </si>
   <si>
-    <t xml:space="preserve">pd-1
-</t>
-  </si>
-  <si>
     <t>.telecom</t>
-  </si>
-  <si>
-    <t>PractitionerRole.telecom.id</t>
-  </si>
-  <si>
-    <t>PractitionerRole.telecom.extension</t>
-  </si>
-  <si>
-    <t>PractitionerRole.telecom.system</t>
-  </si>
-  <si>
-    <t>phone | fax | email | pager | url | sms | other</t>
-  </si>
-  <si>
-    <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
-  </si>
-  <si>
-    <t>Telecommunications form for contact point.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/contact-point-system|4.0.1</t>
-  </si>
-  <si>
-    <t>ContactPoint.system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cpt-2
-</t>
-  </si>
-  <si>
-    <t>XTN.3</t>
-  </si>
-  <si>
-    <t>./scheme</t>
-  </si>
-  <si>
-    <t>./ContactPointType</t>
-  </si>
-  <si>
-    <t>PractitionerRole.telecom.value</t>
-  </si>
-  <si>
-    <t>The actual contact point details</t>
-  </si>
-  <si>
-    <t>The actual contact point details, in a form that is meaningful to the designated communication system (i.e. phone number or email address).</t>
-  </si>
-  <si>
-    <t>Additional text data such as phone extension numbers, or notes about use of the contact are sometimes included in the value.</t>
-  </si>
-  <si>
-    <t>Need to support legacy numbers that are not in a tightly controlled format.</t>
-  </si>
-  <si>
-    <t>ContactPoint.value</t>
-  </si>
-  <si>
-    <t>XTN.1 (or XTN.12)</t>
-  </si>
-  <si>
-    <t>./url</t>
-  </si>
-  <si>
-    <t>./Value</t>
-  </si>
-  <si>
-    <t>PractitionerRole.telecom.use</t>
-  </si>
-  <si>
-    <t>home | work | temp | old | mobile - purpose of this contact point</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for the contact point.</t>
-  </si>
-  <si>
-    <t>Applications can assume that a contact is current unless it explicitly says that it is temporary or old.</t>
-  </si>
-  <si>
-    <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
-  </si>
-  <si>
-    <t>Use of contact point.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/contact-point-use|4.0.1</t>
-  </si>
-  <si>
-    <t>ContactPoint.use</t>
-  </si>
-  <si>
-    <t>XTN.2 - but often indicated by field</t>
-  </si>
-  <si>
-    <t>unique(./use)</t>
-  </si>
-  <si>
-    <t>./ContactPointPurpose</t>
-  </si>
-  <si>
-    <t>PractitionerRole.telecom.rank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positiveInt
-</t>
-  </si>
-  <si>
-    <t>Specify preferred order of use (1 = highest)</t>
-  </si>
-  <si>
-    <t>Specifies a preferred order in which to use a set of contacts. ContactPoints with lower rank values are more preferred than those with higher rank values.</t>
-  </si>
-  <si>
-    <t>Note that rank does not necessarily follow the order in which the contacts are represented in the instance.</t>
-  </si>
-  <si>
-    <t>ContactPoint.rank</t>
-  </si>
-  <si>
-    <t>PractitionerRole.telecom.period</t>
-  </si>
-  <si>
-    <t>Time period when the contact point was/is in use</t>
-  </si>
-  <si>
-    <t>Time period when the contact point was/is in use.</t>
-  </si>
-  <si>
-    <t>ContactPoint.period</t>
-  </si>
-  <si>
-    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
-  </si>
-  <si>
-    <t>./StartDate and ./EndDate</t>
   </si>
   <si>
     <t>PractitionerRole.availableTime</t>
@@ -1180,7 +1042,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM51"/>
+  <dimension ref="A1:AM44"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3569,7 +3431,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
         <v>186</v>
       </c>
@@ -3579,13 +3441,13 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>40</v>
@@ -3678,7 +3540,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
         <v>191</v>
       </c>
@@ -3688,13 +3550,13 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>40</v>
@@ -3787,7 +3649,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
         <v>196</v>
       </c>
@@ -3803,7 +3665,7 @@
         <v>42</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>40</v>
@@ -3898,7 +3760,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
         <v>206</v>
       </c>
@@ -3914,7 +3776,7 @@
         <v>42</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>40</v>
@@ -4005,7 +3867,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
         <v>213</v>
       </c>
@@ -4021,7 +3883,7 @@
         <v>42</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>40</v>
@@ -4223,7 +4085,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
         <v>226</v>
       </c>
@@ -4239,7 +4101,7 @@
         <v>42</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>40</v>
@@ -4316,7 +4178,7 @@
         <v>42</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>231</v>
+        <v>40</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>62</v>
@@ -4325,7 +4187,7 @@
         <v>40</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>40</v>
@@ -4336,7 +4198,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4347,7 +4209,7 @@
         <v>41</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>40</v>
@@ -4359,15 +4221,17 @@
         <v>40</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>52</v>
+        <v>233</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>64</v>
+        <v>234</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>40</v>
@@ -4416,25 +4280,25 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>66</v>
+        <v>232</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>67</v>
+        <v>237</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>40</v>
@@ -4445,18 +4309,18 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>40</v>
@@ -4468,17 +4332,15 @@
         <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>40</v>
@@ -4515,31 +4377,31 @@
         <v>40</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>40</v>
@@ -4554,40 +4416,42 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>236</v>
+        <v>71</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>40</v>
@@ -4612,13 +4476,13 @@
         <v>40</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>202</v>
+        <v>40</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>238</v>
+        <v>40</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>239</v>
+        <v>40</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>40</v>
@@ -4636,71 +4500,71 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" hidden="true">
+      <c r="A32" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>40</v>
+        <v>241</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H32" t="s" s="2">
         <v>51</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>40</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>248</v>
+        <v>73</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>249</v>
+        <v>156</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>40</v>
@@ -4749,28 +4613,28 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>251</v>
+        <v>40</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>252</v>
+        <v>149</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>253</v>
+        <v>40</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>40</v>
@@ -4778,7 +4642,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4789,32 +4653,28 @@
         <v>41</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>126</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>258</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>40</v>
       </c>
@@ -4841,10 +4701,10 @@
         <v>202</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>40</v>
@@ -4862,13 +4722,13 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>40</v>
@@ -4877,13 +4737,13 @@
         <v>62</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>262</v>
+        <v>40</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>264</v>
+        <v>40</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>40</v>
@@ -4891,7 +4751,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4911,20 +4771,18 @@
         <v>40</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>266</v>
+        <v>168</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>40</v>
@@ -4973,7 +4831,7 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -4988,10 +4846,10 @@
         <v>62</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>67</v>
+        <v>237</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>40</v>
@@ -5002,7 +4860,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5022,18 +4880,20 @@
         <v>40</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>178</v>
+        <v>254</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>40</v>
@@ -5082,7 +4942,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5097,13 +4957,13 @@
         <v>62</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>276</v>
+        <v>40</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>40</v>
@@ -5111,7 +4971,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5122,7 +4982,7 @@
         <v>41</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>40</v>
@@ -5134,16 +4994,16 @@
         <v>40</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5193,13 +5053,13 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>40</v>
@@ -5211,7 +5071,7 @@
         <v>40</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>282</v>
+        <v>237</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>40</v>
@@ -5222,7 +5082,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5233,7 +5093,7 @@
         <v>41</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>40</v>
@@ -5245,13 +5105,13 @@
         <v>40</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>52</v>
+        <v>233</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>64</v>
+        <v>262</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>65</v>
+        <v>263</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5302,25 +5162,25 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>66</v>
+        <v>261</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>67</v>
+        <v>237</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>40</v>
@@ -5331,18 +5191,18 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>40</v>
@@ -5354,17 +5214,15 @@
         <v>40</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>40</v>
@@ -5413,19 +5271,19 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>40</v>
@@ -5442,11 +5300,11 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>286</v>
+        <v>69</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -5459,26 +5317,24 @@
         <v>40</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>70</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>287</v>
+        <v>71</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>288</v>
+        <v>72</v>
       </c>
       <c r="M39" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="N39" t="s" s="2">
-        <v>156</v>
-      </c>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>40</v>
       </c>
@@ -5526,7 +5382,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>289</v>
+        <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5544,7 +5400,7 @@
         <v>40</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>149</v>
+        <v>67</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>40</v>
@@ -5555,11 +5411,11 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>40</v>
+        <v>241</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5572,22 +5428,26 @@
         <v>40</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>291</v>
+        <v>242</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>40</v>
       </c>
@@ -5611,13 +5471,13 @@
         <v>40</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>202</v>
+        <v>40</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>293</v>
+        <v>40</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>294</v>
+        <v>40</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>40</v>
@@ -5635,7 +5495,7 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>290</v>
+        <v>244</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -5647,13 +5507,13 @@
         <v>40</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>282</v>
+        <v>149</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>40</v>
@@ -5664,7 +5524,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5672,7 +5532,7 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>50</v>
@@ -5687,13 +5547,13 @@
         <v>40</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>168</v>
+        <v>52</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5744,10 +5604,10 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>50</v>
@@ -5762,7 +5622,7 @@
         <v>40</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>282</v>
+        <v>67</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>40</v>
@@ -5773,7 +5633,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5796,17 +5656,15 @@
         <v>40</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>299</v>
+        <v>178</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>300</v>
+        <v>271</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>302</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>40</v>
@@ -5855,7 +5713,7 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -5873,7 +5731,7 @@
         <v>40</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>282</v>
+        <v>237</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>40</v>
@@ -5884,7 +5742,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5907,17 +5765,15 @@
         <v>40</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>299</v>
+        <v>52</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>304</v>
+        <v>274</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>302</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>40</v>
@@ -5966,7 +5822,7 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -5984,7 +5840,7 @@
         <v>40</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>282</v>
+        <v>237</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>40</v>
@@ -5995,7 +5851,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>306</v>
+        <v>276</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6018,16 +5874,18 @@
         <v>40</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="K44" t="s" s="2">
-        <v>307</v>
-      </c>
       <c r="L44" t="s" s="2">
-        <v>308</v>
+        <v>279</v>
       </c>
       <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+      <c r="N44" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>40</v>
       </c>
@@ -6075,7 +5933,7 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>306</v>
+        <v>276</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6093,788 +5951,17 @@
         <v>40</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>282</v>
+        <v>67</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" hidden="true">
-      <c r="A45" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F45" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J45" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="K45" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P45" s="2"/>
-      <c r="Q45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46" hidden="true">
-      <c r="A46" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="K46" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P46" s="2"/>
-      <c r="Q46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="47" hidden="true">
-      <c r="A47" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="K47" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P47" s="2"/>
-      <c r="Q47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="48" hidden="true">
-      <c r="A48" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="B48" s="2"/>
-      <c r="C48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="F48" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="K48" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P48" s="2"/>
-      <c r="Q48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="49" hidden="true">
-      <c r="A49" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F49" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J49" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="K49" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P49" s="2"/>
-      <c r="Q49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="50" hidden="true">
-      <c r="A50" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D50" s="2"/>
-      <c r="E50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F50" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J50" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="K50" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P50" s="2"/>
-      <c r="Q50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D51" s="2"/>
-      <c r="E51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="M51" s="2"/>
-      <c r="N51" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P51" s="2"/>
-      <c r="Q51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM51" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM51">
+  <autoFilter ref="A1:AM44">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6884,7 +5971,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI50">
+  <conditionalFormatting sqref="A2:AI43">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
